--- a/signals_gui/data.xlsx
+++ b/signals_gui/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\signals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\signals_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41406B58-B3FD-434D-9EB0-70D9943A8A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20564F8-D98E-4495-8301-398DAE6F4E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,39 +369,39 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
